--- a/Module3/Airline.xlsx
+++ b/Module3/Airline.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10727"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alanrvazquez/Library/CloudStorage/GoogleDrive-alanrvazquez@tec.mx/My Drive/TEACHING TEC/IN2004B Generacion de Valor con Analitica de Datos/Materiales/Modulo 3/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alanvazquez/Documents/GitHub/TEC-IN2004B/Module3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E18C96C-742F-2146-A19C-68F8CD043542}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3F60AF2-0789-0849-8A88-21356D8EFB90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="16440" xr2:uid="{A1F7F89A-21E8-A24A-831D-173CAA3038C3}"/>
   </bookViews>
@@ -41,7 +41,7 @@
     <t>T</t>
   </si>
   <si>
-    <t>Numero de pasajeros</t>
+    <t>Number of passengers</t>
   </si>
 </sst>
 </file>
